--- a/data/AL/AL2022-elections-analysis.xlsx
+++ b/data/AL/AL2022-elections-analysis.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alecramsay/dev/method_eval/data/AL/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A7494914-129D-3C41-B43F-1DB6A848A176}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1FF7A4A5-B062-6A44-B01A-F26FB40FA00E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1120" yWindow="500" windowWidth="27300" windowHeight="16940" xr2:uid="{E07B753F-D19D-F245-ABF7-A5E98BF2DEA9}"/>
+    <workbookView xWindow="11580" yWindow="5400" windowWidth="28040" windowHeight="17440" xr2:uid="{0C3EC1B5-0AEA-AD4D-8EF9-DB753BD2173E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
-  <connection id="1" xr16:uid="{F8BB65AA-953D-8D45-82DE-09B7D41C67BD}" name="AL2022-elections-analysis" type="6" refreshedVersion="8" background="1" saveData="1">
+  <connection id="1" xr16:uid="{A33911A1-66DD-534F-87FD-24BB46BF6DDC}" name="AL2022-elections-analysis" type="6" refreshedVersion="8" background="1" saveData="1">
     <textPr codePage="10000" sourceFile="/Users/alecramsay/dev/method_eval/data/AL/AL2022-elections-analysis.csv" comma="1">
       <textFields count="26">
         <textField type="text"/>
@@ -81,106 +81,106 @@
     <t>XX</t>
   </si>
   <si>
-    <t xml:space="preserve"> YEAR</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ELECTION</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> CD</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Vf</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> S_V</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> FPTP</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> PR</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> BS_50</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> BV_50</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> DECL</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> GS</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> EG</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> BS_V</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> PROP</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> MM</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> TO</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> MM'</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> LO</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> BIG_R</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> LIL_R</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> R_V</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> L_Vf</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> L_Sf</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> U_Vf</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> U_Sf</t>
+    <t>YEAR</t>
+  </si>
+  <si>
+    <t>ELECTION</t>
+  </si>
+  <si>
+    <t>CD</t>
+  </si>
+  <si>
+    <t>Vf</t>
+  </si>
+  <si>
+    <t>S_V</t>
+  </si>
+  <si>
+    <t>FPTP</t>
+  </si>
+  <si>
+    <t>PR</t>
+  </si>
+  <si>
+    <t>BS_50</t>
+  </si>
+  <si>
+    <t>BV_50</t>
+  </si>
+  <si>
+    <t>DECL</t>
+  </si>
+  <si>
+    <t>GS</t>
+  </si>
+  <si>
+    <t>EG</t>
+  </si>
+  <si>
+    <t>BS_V</t>
+  </si>
+  <si>
+    <t>PROP</t>
+  </si>
+  <si>
+    <t>MM</t>
+  </si>
+  <si>
+    <t>TO</t>
+  </si>
+  <si>
+    <t>MM'</t>
+  </si>
+  <si>
+    <t>LO</t>
+  </si>
+  <si>
+    <t>BIG_R</t>
+  </si>
+  <si>
+    <t>LIL_R</t>
+  </si>
+  <si>
+    <t>R_V</t>
+  </si>
+  <si>
+    <t>L_Vf</t>
+  </si>
+  <si>
+    <t>L_Sf</t>
+  </si>
+  <si>
+    <t>U_Vf</t>
+  </si>
+  <si>
+    <t>U_Sf</t>
   </si>
   <si>
     <t>AL</t>
   </si>
   <si>
-    <t xml:space="preserve"> 2022</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> composite</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> P2020</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> P2016</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> S2020</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> S2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> G2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> AG2018</t>
+    <t>2022</t>
+  </si>
+  <si>
+    <t>composite</t>
+  </si>
+  <si>
+    <t>P2020</t>
+  </si>
+  <si>
+    <t>P2016</t>
+  </si>
+  <si>
+    <t>S2020</t>
+  </si>
+  <si>
+    <t>S2017</t>
+  </si>
+  <si>
+    <t>G2018</t>
+  </si>
+  <si>
+    <t>AG2018</t>
   </si>
 </sst>
 </file>
@@ -237,7 +237,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="AL2022-elections-analysis" connectionId="1" xr16:uid="{F953AE6B-27DA-FD48-9E21-2636B092A63F}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="AL2022-elections-analysis" connectionId="1" xr16:uid="{CBB639CF-0E9C-974C-94B4-ADE050218315}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -536,7 +536,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE73F03F-B14C-BE40-9276-8403FBC4A2F5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF851CBB-2EB9-B147-A708-47ADA1673F7C}">
   <dimension ref="A1:Z8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -544,12 +544,12 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="3.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="3.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="9.1640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="3.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="3.33203125" bestFit="1" customWidth="1"/>
     <col min="9" max="10" width="9.1640625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="10.1640625" bestFit="1" customWidth="1"/>
     <col min="12" max="13" width="9.1640625" bestFit="1" customWidth="1"/>
